--- a/matlab/logDataProcess/ipb41-44.xlsx
+++ b/matlab/logDataProcess/ipb41-44.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
   <si>
     <t>reactor</t>
   </si>
@@ -98,6 +98,27 @@
   </si>
   <si>
     <t>100ns-300v-reduced-time</t>
+  </si>
+  <si>
+    <t>2017-06-19-V1810-Core44b_H2_V4.1reactor</t>
+  </si>
+  <si>
+    <t>062017</t>
+  </si>
+  <si>
+    <t>IPB41_New_cables_100-8000ns__50W_250-275C_H2_day-01.csv</t>
+  </si>
+  <si>
+    <t>IPBx_CoreQPow_vs_PW-Freq_COP_test_50W_250-275C_H2.csv</t>
+  </si>
+  <si>
+    <t>IPB4-1_CoreQPow_vs_PW-Freq_test_50W_250-275C_H2-6-12-17_day-01.csv</t>
+  </si>
+  <si>
+    <t>061317</t>
+  </si>
+  <si>
+    <t>8000ns-100ns-cal</t>
   </si>
 </sst>
 </file>
@@ -945,19 +966,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="57.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="4.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" style="2" bestFit="1" customWidth="1"/>
@@ -972,7 +993,7 @@
     <col min="18" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1025,7 +1046,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
@@ -1033,19 +1054,19 @@
         <v>24</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="2">
-        <v>7</v>
-      </c>
-      <c r="G2" s="2">
-        <v>7</v>
+        <v>32</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1">
+        <v>3</v>
       </c>
       <c r="H2" s="2">
         <v>0</v>
@@ -1069,16 +1090,16 @@
         <v>2.0299999999999998</v>
       </c>
       <c r="O2" s="2">
-        <v>189</v>
+        <v>1810</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
@@ -1089,16 +1110,16 @@
         <v>20</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G3" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H3" s="2">
         <v>0</v>
@@ -1122,22 +1143,122 @@
         <v>2.0299999999999998</v>
       </c>
       <c r="O3" s="2">
-        <v>189</v>
+        <v>1810</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="Q3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="2">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2">
+        <v>10</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N4" s="2">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="O4" s="2">
+        <v>1810</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q4" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
+        <v>2</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N5" s="2">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="O5" s="2">
+        <v>1810</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -1157,7 +1278,6 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C13" s="3"/>
@@ -1182,6 +1302,10 @@
     <row r="18" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/matlab/logDataProcess/ipb41-44.xlsx
+++ b/matlab/logDataProcess/ipb41-44.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="75" windowWidth="24810" windowHeight="10245"/>
+    <workbookView xWindow="2295" yWindow="-45" windowWidth="15045" windowHeight="14340"/>
   </bookViews>
   <sheets>
     <sheet name="ipb1-40" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="46">
   <si>
     <t>reactor</t>
   </si>
@@ -119,6 +119,39 @@
   </si>
   <si>
     <t>8000ns-100ns-cal</t>
+  </si>
+  <si>
+    <t>PB4_CoreQPow_vs_PW_8000-80ns_50W_250-275C_H2_6-28-17_day-01.csv</t>
+  </si>
+  <si>
+    <t>062817</t>
+  </si>
+  <si>
+    <t>8000ns-100ns</t>
+  </si>
+  <si>
+    <t>10000ns-30v-629_day-01.cs</t>
+  </si>
+  <si>
+    <t>063017</t>
+  </si>
+  <si>
+    <t>10000ns-30v</t>
+  </si>
+  <si>
+    <t>IPB4_CoreQPow_vs_PW_10us-80ns_50W_250-275C_H2_6-30-17_day-01.csv</t>
+  </si>
+  <si>
+    <t>070117</t>
+  </si>
+  <si>
+    <t>10us-30v</t>
+  </si>
+  <si>
+    <t>100ns-300v-temp_7-2-17_day-01.csv</t>
+  </si>
+  <si>
+    <t>070417</t>
   </si>
 </sst>
 </file>
@@ -969,7 +1002,7 @@
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -977,7 +1010,7 @@
     <col min="1" max="1" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="57.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="4.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
@@ -1255,20 +1288,212 @@
         <v>16</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C6" s="3"/>
+      <c r="A6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="2">
+        <v>16</v>
+      </c>
+      <c r="G6" s="2">
+        <v>18</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N6" s="2">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="O6" s="2">
+        <v>1810</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C7" s="3"/>
+      <c r="A7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="2">
+        <v>19</v>
+      </c>
+      <c r="G7" s="2">
+        <v>19</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N7" s="2">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="O7" s="2">
+        <v>1810</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C8" s="3"/>
+      <c r="A8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="2">
+        <v>21</v>
+      </c>
+      <c r="G8" s="2">
+        <v>23</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N8" s="2">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="O8" s="2">
+        <v>1810</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C9" s="3"/>
+      <c r="A9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="2">
+        <v>26</v>
+      </c>
+      <c r="G9" s="2">
+        <v>27</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N9" s="2">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="O9" s="2">
+        <v>1810</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C10" s="3"/>
@@ -1295,15 +1520,19 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="2">
+        <f>150*0.8</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
     </row>

--- a/matlab/logDataProcess/ipb41-44.xlsx
+++ b/matlab/logDataProcess/ipb41-44.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="-45" windowWidth="15045" windowHeight="14340"/>
+    <workbookView xWindow="-1155" yWindow="405" windowWidth="26925" windowHeight="14340"/>
   </bookViews>
   <sheets>
     <sheet name="ipb1-40" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="51">
   <si>
     <t>reactor</t>
   </si>
@@ -152,6 +152,21 @@
   </si>
   <si>
     <t>070417</t>
+  </si>
+  <si>
+    <t>10us-80ns</t>
+  </si>
+  <si>
+    <t>IPB4-3__10us80ns_250C_h2d2mix_7-7-17_day-01.csv</t>
+  </si>
+  <si>
+    <t>070817</t>
+  </si>
+  <si>
+    <t>IPB4-3__10us80ns_275-300C_h2d2mix_7-9-17_day-01.csv</t>
+  </si>
+  <si>
+    <t>071017</t>
   </si>
 </sst>
 </file>
@@ -999,10 +1014,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q19"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1026,7 +1041,7 @@
     <col min="18" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1079,7 +1094,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
@@ -1132,7 +1147,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
@@ -1185,7 +1200,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>23</v>
       </c>
@@ -1238,7 +1253,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>23</v>
       </c>
@@ -1291,7 +1306,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -1496,13 +1511,109 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C10" s="3"/>
+      <c r="A10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="2">
+        <v>34</v>
+      </c>
+      <c r="G10" s="2">
+        <v>35</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N10" s="2">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="O10" s="2">
+        <v>1810</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C11" s="3"/>
+      <c r="A11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="2">
+        <v>38</v>
+      </c>
+      <c r="G11" s="2">
+        <v>39</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N11" s="2">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="O11" s="2">
+        <v>1810</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C13" s="3"/>
@@ -1520,21 +1631,9 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="2">
-        <f>150*0.8</f>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/matlab/logDataProcess/ipb41-44.xlsx
+++ b/matlab/logDataProcess/ipb41-44.xlsx
@@ -1017,7 +1017,7 @@
   <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1530,7 +1530,7 @@
         <v>35</v>
       </c>
       <c r="H10" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I10" s="2">
         <v>0</v>
